--- a/a_submit_manner/document/Bug_Log_template.xlsx
+++ b/a_submit_manner/document/Bug_Log_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EF5EE8-794B-43B4-B662-FA198B57E549}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13909219-C1FE-4155-AAA3-51A86E5FE599}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,11 +95,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pd.to_csv() failed because of ','</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>use to_excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.to_csv() failed because of ',' in [text] column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inside the script the situation solved by using its recommanded method. However, since some function call methods from pandas package, there are still such warnings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +477,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -499,8 +511,8 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -514,8 +526,8 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="4">
-        <v>2</v>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -529,8 +541,8 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="4">
-        <v>2</v>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -544,8 +556,8 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="4">
-        <v>2</v>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -559,8 +571,8 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="4">
-        <v>2</v>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
@@ -574,28 +586,32 @@
     </row>
     <row r="7" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="4">
-        <v>2</v>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="4">
-        <v>2</v>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
